--- a/Result/VAR/Manufacturing/BRA.xlsx
+++ b/Result/VAR/Manufacturing/BRA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,353 +460,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>1.839842016141219</v>
+        <v>30.79672359319017</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.372038726889695</v>
+        <v>30.77825366530849</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>2.606331702019858</v>
+        <v>32.05897565749333</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.108731102017199</v>
+        <v>31.44159675673031</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004211423427893379</v>
+        <v>32.84219294450578</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>1.000784417812888</v>
+        <v>31.20853563789288</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8913175353392262</v>
+        <v>29.33773961682081</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.8144660179252519</v>
+        <v>28.62857178437098</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.715069411280528</v>
+        <v>28.67017959930834</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>5.443703349125663</v>
+        <v>27.47224845974213</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>2.458592735280817</v>
+        <v>22.38308950487326</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>1.271608666000038</v>
+        <v>21.32896306094731</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.069641709979965</v>
+        <v>22.20509770076017</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.850451739823374</v>
+        <v>23.73621062468401</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>7.703866635464893</v>
+        <v>21.74726042081</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>1.426522050837628</v>
+        <v>14.59987850897136</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.8149223156930887</v>
+        <v>13.50608504563435</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>1.016884315703809</v>
+        <v>13.35146828681974</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6727301265392214</v>
+        <v>12.82276844864395</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8712479211925412</v>
+        <v>13.14168073883716</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6874536098748703</v>
+        <v>13.46360880715693</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>2.826377163706631</v>
+        <v>12.65971628749786</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.44503630234601</v>
+        <v>12.02190667790699</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.010014608698231</v>
+        <v>12.90753896594799</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2680862500155907</v>
+        <v>13.90815767196595</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6746541955897012</v>
+        <v>13.17746456401336</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2444068321908492</v>
+        <v>12.72931624845361</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6966268500903805</v>
+        <v>13.20908178799065</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5581122095209086</v>
+        <v>13.07368276700486</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.6004593954296489</v>
+        <v>11.46768540750001</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1697934248421902</v>
+        <v>13.1026972870062</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9115253465156812</v>
+        <v>12.45203094406331</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05381512367445751</v>
+        <v>11.01044012906111</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3263549428603927</v>
+        <v>10.79866369960539</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08167362036666859</v>
+        <v>10.74950077848647</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10.44900628995899</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,7 +864,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6285673283107693</v>
+        <v>10.21530582195197</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -864,7 +874,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3137642956746551</v>
+        <v>8.883449119451711</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -874,7 +884,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05904499992372841</v>
+        <v>7.006250561232967</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -884,7 +894,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.03279647981720285</v>
+        <v>4.775035459723021</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -894,7 +904,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04210760137935887</v>
+        <v>2.342914474150852</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -910,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,423 +952,413 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>29.94925716914291</v>
+        <v>30.6898912899712</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>30.18430948209948</v>
+        <v>30.69852277986175</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>32.25920381119727</v>
+        <v>32.02455550446046</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>31.96205941340536</v>
+        <v>31.41956916585533</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>34.27124671763331</v>
+        <v>32.86593900601454</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>32.47170291984406</v>
+        <v>31.23043280591637</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>30.67637054548271</v>
+        <v>29.35216887126114</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>29.88182258893424</v>
+        <v>28.66019858498178</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>29.978592167725</v>
+        <v>28.73125812246346</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>29.26089572859051</v>
+        <v>27.5300443343671</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>22.82812987817549</v>
+        <v>22.38269255533985</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>21.83906737688613</v>
+        <v>21.33212737388785</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>23.30859761087759</v>
+        <v>22.24499696494597</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>26.04973651086909</v>
+        <v>23.81704082757361</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>23.72123370088062</v>
+        <v>21.81663329014229</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>14.54227915106878</v>
+        <v>14.5731183154702</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>13.06719123672183</v>
+        <v>13.48625266638203</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>13.01862537321251</v>
+        <v>13.34938571157179</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>12.1551371940101</v>
+        <v>12.8362654579143</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>12.3085333305115</v>
+        <v>13.18626030365987</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>13.13465959355212</v>
+        <v>13.53047060825212</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>13.0895379354002</v>
+        <v>12.72527163305156</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>12.35696266737341</v>
+        <v>12.02890448411924</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>14.45076456305325</v>
+        <v>12.90060724764589</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>15.09953015638708</v>
+        <v>13.9035869370491</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>14.73828114102268</v>
+        <v>13.14145553157118</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>14.10894587564269</v>
+        <v>12.67275265964641</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>14.1542648058524</v>
+        <v>13.18137869879019</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>13.95517690387126</v>
+        <v>13.02327794360013</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>13.05946215179974</v>
+        <v>11.33656432670957</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>12.72185960924913</v>
+        <v>12.8752349988316</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>11.78379767126887</v>
+        <v>12.16913207151188</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>10.67594230844642</v>
+        <v>10.90354543088067</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>10.47961229213965</v>
+        <v>10.67291057177405</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>10.33709739950734</v>
+        <v>10.77113987036222</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>10.52093744973542</v>
+        <v>10.57412829018254</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>10.78645112033017</v>
+        <v>10.46971738009033</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>10.72149801387266</v>
+        <v>10.19527103975409</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>10.52845738117833</v>
+        <v>10.45839980050479</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>10.33250053589602</v>
+        <v>10.50342783602759</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>9.663418179444509</v>
+        <v>9.864702960519255</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="n">
-        <v>9.645341701464915</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,7 +1406,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>1.033151773048477</v>
+        <v>9.686398161940836</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6774470810368336</v>
+        <v>9.583374952163972</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1426,7 +1426,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28098766665862</v>
+        <v>9.451430799199251</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1643070000226367</v>
+        <v>9.328691165276702</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>0.035954544831176</v>
+        <v>9.224155680911274</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
